--- a/BOM/v7.1BOM.xlsx
+++ b/BOM/v7.1BOM.xlsx
@@ -194,10 +194,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>电解电容100UF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>电容15PF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -222,10 +218,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6.3x5.4,16V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3x4 ,复位开关</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -251,6 +243,14 @@
   </si>
   <si>
     <t>单片机核心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电解电容200UF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.3x5.4,10V</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -677,7 +677,7 @@
   <dimension ref="G1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27:L27"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.25"/>
@@ -835,7 +835,7 @@
     </row>
     <row r="11" spans="8:12" x14ac:dyDescent="0.25">
       <c r="I11" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>4</v>
@@ -849,7 +849,7 @@
     </row>
     <row r="12" spans="8:12" x14ac:dyDescent="0.25">
       <c r="I12" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>4</v>
@@ -863,7 +863,7 @@
     </row>
     <row r="13" spans="8:12" x14ac:dyDescent="0.25">
       <c r="I13" s="1" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>15</v>
@@ -872,7 +872,7 @@
         <v>1</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="8:12" x14ac:dyDescent="0.25">
@@ -917,7 +917,7 @@
     </row>
     <row r="17" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I17" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>15</v>
@@ -926,12 +926,12 @@
         <v>1</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I18" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>15</v>
@@ -940,12 +940,12 @@
         <v>3</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I19" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>15</v>
@@ -954,7 +954,7 @@
         <v>1</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="9:12" x14ac:dyDescent="0.25">
@@ -1015,16 +1015,16 @@
     </row>
     <row r="24" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I24" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K24" s="1">
+        <v>1</v>
+      </c>
+      <c r="L24" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="K24" s="1">
-        <v>1</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="25" spans="9:12" x14ac:dyDescent="0.25">
@@ -1053,14 +1053,14 @@
     </row>
     <row r="27" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I27" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="1">
         <v>1</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="9:12" x14ac:dyDescent="0.25">
